--- a/data/pca/factorExposure/factorExposure_2016-11-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01773366359842543</v>
+        <v>0.01544819095895865</v>
       </c>
       <c r="C2">
-        <v>0.04618609754655272</v>
+        <v>-0.04203422131765092</v>
       </c>
       <c r="D2">
-        <v>-0.02543623352914123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05861345356650489</v>
+      </c>
+      <c r="E2">
+        <v>0.01875122351032652</v>
+      </c>
+      <c r="F2">
+        <v>-0.09359168773026963</v>
+      </c>
+      <c r="G2">
+        <v>0.02914347432221686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05558573468198034</v>
+        <v>0.03436263298273516</v>
       </c>
       <c r="C3">
-        <v>0.09754236135963149</v>
+        <v>-0.08468087264758353</v>
       </c>
       <c r="D3">
-        <v>-0.04759707238171923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1008686066162269</v>
+      </c>
+      <c r="E3">
+        <v>0.02407890097677914</v>
+      </c>
+      <c r="F3">
+        <v>-0.06810551641272021</v>
+      </c>
+      <c r="G3">
+        <v>-0.06753134190364249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06273182925088759</v>
+        <v>0.05934416862266522</v>
       </c>
       <c r="C4">
-        <v>0.06399268905100733</v>
+        <v>-0.06009894347155964</v>
       </c>
       <c r="D4">
-        <v>-0.01187046464678591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05757119590740525</v>
+      </c>
+      <c r="E4">
+        <v>0.01533617468023694</v>
+      </c>
+      <c r="F4">
+        <v>-0.0936444496820651</v>
+      </c>
+      <c r="G4">
+        <v>-0.03905681354939775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02805851397249612</v>
+        <v>0.03558820949411626</v>
       </c>
       <c r="C6">
-        <v>0.04627691457815266</v>
+        <v>-0.03657793793179408</v>
       </c>
       <c r="D6">
-        <v>-0.01121896649880437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06485541558200973</v>
+      </c>
+      <c r="E6">
+        <v>0.01923493265832073</v>
+      </c>
+      <c r="F6">
+        <v>-0.08837948981160133</v>
+      </c>
+      <c r="G6">
+        <v>-0.01943857761766398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02552238197611949</v>
+        <v>0.02231216550415517</v>
       </c>
       <c r="C7">
-        <v>0.04173939822317452</v>
+        <v>-0.03400160708005469</v>
       </c>
       <c r="D7">
-        <v>0.01133789431468295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03201309159488059</v>
+      </c>
+      <c r="E7">
+        <v>0.002559329902187307</v>
+      </c>
+      <c r="F7">
+        <v>-0.1209906990028587</v>
+      </c>
+      <c r="G7">
+        <v>-0.004990507259739106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007466549618793401</v>
+        <v>0.005496433169604144</v>
       </c>
       <c r="C8">
-        <v>0.01336261981840107</v>
+        <v>-0.02076273402211706</v>
       </c>
       <c r="D8">
-        <v>-0.01592525905499622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03657800925521002</v>
+      </c>
+      <c r="E8">
+        <v>0.0122881935616693</v>
+      </c>
+      <c r="F8">
+        <v>-0.06489205802161457</v>
+      </c>
+      <c r="G8">
+        <v>-0.009570721746121493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02838987787104019</v>
+        <v>0.03761885975837909</v>
       </c>
       <c r="C9">
-        <v>0.04384712253312055</v>
+        <v>-0.04750838532281</v>
       </c>
       <c r="D9">
-        <v>-0.004783956958901188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04107397930706812</v>
+      </c>
+      <c r="E9">
+        <v>0.01084335637295126</v>
+      </c>
+      <c r="F9">
+        <v>-0.0984610393772196</v>
+      </c>
+      <c r="G9">
+        <v>-0.02213092992568836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07646185618269886</v>
+        <v>0.09312669705901784</v>
       </c>
       <c r="C10">
-        <v>-0.195213876034511</v>
+        <v>0.1912204116915076</v>
       </c>
       <c r="D10">
-        <v>-0.01606063693704883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004272219212011551</v>
+      </c>
+      <c r="E10">
+        <v>0.03667215387551721</v>
+      </c>
+      <c r="F10">
+        <v>-0.04605965478837</v>
+      </c>
+      <c r="G10">
+        <v>-0.003864303502521435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04279558883735118</v>
+        <v>0.03759062458959051</v>
       </c>
       <c r="C11">
-        <v>0.05406066717367177</v>
+        <v>-0.04981310932897277</v>
       </c>
       <c r="D11">
-        <v>0.00579178743070104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02775901442980804</v>
+      </c>
+      <c r="E11">
+        <v>-0.0126436818821577</v>
+      </c>
+      <c r="F11">
+        <v>-0.06958461037118599</v>
+      </c>
+      <c r="G11">
+        <v>-0.01245083183346291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03646913126308132</v>
+        <v>0.03798967707129507</v>
       </c>
       <c r="C12">
-        <v>0.04545920993842661</v>
+        <v>-0.04552157053724756</v>
       </c>
       <c r="D12">
-        <v>0.005869679721360174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02184897446803451</v>
+      </c>
+      <c r="E12">
+        <v>-0.003956829910113142</v>
+      </c>
+      <c r="F12">
+        <v>-0.07116559595933289</v>
+      </c>
+      <c r="G12">
+        <v>-0.008375051163410975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01150952191072152</v>
+        <v>0.0132256857198492</v>
       </c>
       <c r="C13">
-        <v>0.04469188361406533</v>
+        <v>-0.04163771769400705</v>
       </c>
       <c r="D13">
-        <v>-0.02029564595091276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06468832794985441</v>
+      </c>
+      <c r="E13">
+        <v>0.02698561939320316</v>
+      </c>
+      <c r="F13">
+        <v>-0.1307563323785849</v>
+      </c>
+      <c r="G13">
+        <v>-0.01783685860318715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007155577784728001</v>
+        <v>0.007143804323441624</v>
       </c>
       <c r="C14">
-        <v>0.03349871370765171</v>
+        <v>-0.02671317402607184</v>
       </c>
       <c r="D14">
-        <v>0.01240403952100234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02772004155593275</v>
+      </c>
+      <c r="E14">
+        <v>0.005654785239561035</v>
+      </c>
+      <c r="F14">
+        <v>-0.1021758815821597</v>
+      </c>
+      <c r="G14">
+        <v>0.009410497519983744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001302191417044858</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001308126327232849</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001447583656987465</v>
+      </c>
+      <c r="E15">
+        <v>-0.001148802220794583</v>
+      </c>
+      <c r="F15">
+        <v>-8.781197063109319e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.0009637623861459136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03585456841070005</v>
+        <v>0.03468338940206036</v>
       </c>
       <c r="C16">
-        <v>0.04050559500513749</v>
+        <v>-0.04362814870434418</v>
       </c>
       <c r="D16">
-        <v>-0.001944572731507884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02599179503188884</v>
+      </c>
+      <c r="E16">
+        <v>0.002312219363513088</v>
+      </c>
+      <c r="F16">
+        <v>-0.07445401327680655</v>
+      </c>
+      <c r="G16">
+        <v>0.001560702082216358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.030999963850475</v>
+        <v>0.01895718231220354</v>
       </c>
       <c r="C19">
-        <v>0.06334327847787583</v>
+        <v>-0.05068919712804167</v>
       </c>
       <c r="D19">
-        <v>-0.04891161810953679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1050551475043477</v>
+      </c>
+      <c r="E19">
+        <v>0.03441458560421114</v>
+      </c>
+      <c r="F19">
+        <v>-0.1286913116145419</v>
+      </c>
+      <c r="G19">
+        <v>0.01769911039801087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01520429020014542</v>
+        <v>0.01497546706996599</v>
       </c>
       <c r="C20">
-        <v>0.04442553693553172</v>
+        <v>-0.03853485746276095</v>
       </c>
       <c r="D20">
-        <v>-0.02526326140747635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04775913344301178</v>
+      </c>
+      <c r="E20">
+        <v>0.03587162138963264</v>
+      </c>
+      <c r="F20">
+        <v>-0.1004133806546613</v>
+      </c>
+      <c r="G20">
+        <v>-0.001806171462355601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0078567779927631</v>
+        <v>0.008155366411078994</v>
       </c>
       <c r="C21">
-        <v>0.04704350372999959</v>
+        <v>-0.04244699491228201</v>
       </c>
       <c r="D21">
-        <v>-0.03481302704241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07122984543492261</v>
+      </c>
+      <c r="E21">
+        <v>0.02826789492356718</v>
+      </c>
+      <c r="F21">
+        <v>-0.1452951565320846</v>
+      </c>
+      <c r="G21">
+        <v>-0.001328000224351259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003703146858494408</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01464510737197046</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02904144860135268</v>
+      </c>
+      <c r="E22">
+        <v>0.0009958617193393572</v>
+      </c>
+      <c r="F22">
+        <v>-0.01779272398573392</v>
+      </c>
+      <c r="G22">
+        <v>-0.03499791707790344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003757273314382048</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01459697088582299</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02878196463056073</v>
+      </c>
+      <c r="E23">
+        <v>0.001303337870884486</v>
+      </c>
+      <c r="F23">
+        <v>-0.01752843683193144</v>
+      </c>
+      <c r="G23">
+        <v>-0.03500049953328777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03043187488385768</v>
+        <v>0.03341118840120553</v>
       </c>
       <c r="C24">
-        <v>0.0463572206356126</v>
+        <v>-0.05037991238787291</v>
       </c>
       <c r="D24">
-        <v>0.006674495069658505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02339693804673848</v>
+      </c>
+      <c r="E24">
+        <v>-0.002834776601351066</v>
+      </c>
+      <c r="F24">
+        <v>-0.07973586041415252</v>
+      </c>
+      <c r="G24">
+        <v>-0.005149884489361604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04756232863398686</v>
+        <v>0.04365839257152123</v>
       </c>
       <c r="C25">
-        <v>0.05756798530149124</v>
+        <v>-0.05669334911074796</v>
       </c>
       <c r="D25">
-        <v>0.01602087972687078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02067259937278946</v>
+      </c>
+      <c r="E25">
+        <v>-0.006466894179888043</v>
+      </c>
+      <c r="F25">
+        <v>-0.08170386389131706</v>
+      </c>
+      <c r="G25">
+        <v>-0.0213245084168756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009611696222918128</v>
+        <v>0.01467617382416167</v>
       </c>
       <c r="C26">
-        <v>0.01626441548914737</v>
+        <v>-0.01394396179814861</v>
       </c>
       <c r="D26">
-        <v>-0.005387258962149635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02250183628787321</v>
+      </c>
+      <c r="E26">
+        <v>0.008051138564093665</v>
+      </c>
+      <c r="F26">
+        <v>-0.08114940338059369</v>
+      </c>
+      <c r="G26">
+        <v>0.01471500971213799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09087854449394803</v>
+        <v>0.1260058281267978</v>
       </c>
       <c r="C28">
-        <v>-0.2237132865512089</v>
+        <v>0.2433091114606985</v>
       </c>
       <c r="D28">
-        <v>-0.01077564708398097</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01383820587828855</v>
+      </c>
+      <c r="E28">
+        <v>0.03900015741770996</v>
+      </c>
+      <c r="F28">
+        <v>-0.06022254614711421</v>
+      </c>
+      <c r="G28">
+        <v>-0.01425433049875569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01198901804318147</v>
+        <v>0.007902320712554978</v>
       </c>
       <c r="C29">
-        <v>0.0260708216815857</v>
+        <v>-0.0236322454952497</v>
       </c>
       <c r="D29">
-        <v>0.01217005187554698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01828001820229508</v>
+      </c>
+      <c r="E29">
+        <v>0.009480998853724977</v>
+      </c>
+      <c r="F29">
+        <v>-0.09365391079793532</v>
+      </c>
+      <c r="G29">
+        <v>-0.003145171573467272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04368872522866052</v>
+        <v>0.04020085866141115</v>
       </c>
       <c r="C30">
-        <v>0.06988446037433566</v>
+        <v>-0.0597886577500682</v>
       </c>
       <c r="D30">
-        <v>-0.0097774253229298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0985723688530899</v>
+      </c>
+      <c r="E30">
+        <v>-0.01039895188022206</v>
+      </c>
+      <c r="F30">
+        <v>-0.111941439557573</v>
+      </c>
+      <c r="G30">
+        <v>0.01842959116893576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04259139205616074</v>
+        <v>0.05694666275056662</v>
       </c>
       <c r="C31">
-        <v>0.03298247261263293</v>
+        <v>-0.04425762288377226</v>
       </c>
       <c r="D31">
-        <v>0.007884871034618159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0006243852256435987</v>
+      </c>
+      <c r="E31">
+        <v>0.03305482383821741</v>
+      </c>
+      <c r="F31">
+        <v>-0.0920466411986763</v>
+      </c>
+      <c r="G31">
+        <v>-0.040699508186311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007286466249654199</v>
+        <v>0.003552799886987786</v>
       </c>
       <c r="C32">
-        <v>0.03959045587125035</v>
+        <v>-0.03182184469983596</v>
       </c>
       <c r="D32">
-        <v>-0.02037182902752073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0491475873519383</v>
+      </c>
+      <c r="E32">
+        <v>-0.003073984723480209</v>
+      </c>
+      <c r="F32">
+        <v>-0.07188998060131742</v>
+      </c>
+      <c r="G32">
+        <v>0.01035047802841656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03002348500781666</v>
+        <v>0.02595477081827272</v>
       </c>
       <c r="C33">
-        <v>0.06192090990461208</v>
+        <v>-0.05163320102885503</v>
       </c>
       <c r="D33">
-        <v>-0.01808265814929755</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07881679504083575</v>
+      </c>
+      <c r="E33">
+        <v>0.008560210276155453</v>
+      </c>
+      <c r="F33">
+        <v>-0.1425412724937988</v>
+      </c>
+      <c r="G33">
+        <v>-0.01875562799913934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0528815802094252</v>
+        <v>0.04309942862200015</v>
       </c>
       <c r="C34">
-        <v>0.05536037690794105</v>
+        <v>-0.06180245045513652</v>
       </c>
       <c r="D34">
-        <v>0.01224843715611964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02784139332253454</v>
+      </c>
+      <c r="E34">
+        <v>-0.0205865590858819</v>
+      </c>
+      <c r="F34">
+        <v>-0.07636917674897456</v>
+      </c>
+      <c r="G34">
+        <v>-0.00782780027485136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.009073594349557963</v>
+        <v>0.01509036489276269</v>
       </c>
       <c r="C36">
-        <v>0.01290217299814925</v>
+        <v>-0.01039541094820812</v>
       </c>
       <c r="D36">
-        <v>0.0004119063386562452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0248023001176055</v>
+      </c>
+      <c r="E36">
+        <v>0.01171651414814804</v>
+      </c>
+      <c r="F36">
+        <v>-0.0923793959114733</v>
+      </c>
+      <c r="G36">
+        <v>-0.009915835194894675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03576562787846729</v>
+        <v>0.0279600856939209</v>
       </c>
       <c r="C38">
-        <v>0.0266604973003124</v>
+        <v>-0.02338499810797615</v>
       </c>
       <c r="D38">
-        <v>0.005243308565571263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02500607688369079</v>
+      </c>
+      <c r="E38">
+        <v>0.01346447214326956</v>
+      </c>
+      <c r="F38">
+        <v>-0.08256844344039045</v>
+      </c>
+      <c r="G38">
+        <v>-0.007645708148795511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04112841065815443</v>
+        <v>0.03899349632788755</v>
       </c>
       <c r="C39">
-        <v>0.0725742528845707</v>
+        <v>-0.06600140501512905</v>
       </c>
       <c r="D39">
-        <v>-0.009225478415076383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04618319243860266</v>
+      </c>
+      <c r="E39">
+        <v>-0.009158187376488615</v>
+      </c>
+      <c r="F39">
+        <v>-0.09582742529761201</v>
+      </c>
+      <c r="G39">
+        <v>0.01924574493719789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01858463461529499</v>
+        <v>0.01798728996478051</v>
       </c>
       <c r="C40">
-        <v>0.02724799685884999</v>
+        <v>-0.03760845189935642</v>
       </c>
       <c r="D40">
-        <v>-0.02599150542290652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03900970419512952</v>
+      </c>
+      <c r="E40">
+        <v>0.03421828420717479</v>
+      </c>
+      <c r="F40">
+        <v>-0.1125337147099107</v>
+      </c>
+      <c r="G40">
+        <v>-0.05021237087152135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01019244413164228</v>
+        <v>0.01832901901519711</v>
       </c>
       <c r="C41">
-        <v>0.0035687937499139</v>
+        <v>-0.003198885202867176</v>
       </c>
       <c r="D41">
-        <v>0.004922549802155048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01840961310705428</v>
+      </c>
+      <c r="E41">
+        <v>0.01777137481670582</v>
+      </c>
+      <c r="F41">
+        <v>-0.08208230988343257</v>
+      </c>
+      <c r="G41">
+        <v>-0.002576899777654503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.006447772960387822</v>
+        <v>0.003841507677844081</v>
       </c>
       <c r="C42">
-        <v>0.02119029592487923</v>
+        <v>-0.01127163773677992</v>
       </c>
       <c r="D42">
-        <v>-0.008379213879373343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.004383905430583783</v>
+      </c>
+      <c r="E42">
+        <v>0.003984861030965388</v>
+      </c>
+      <c r="F42">
+        <v>0.0118994739232699</v>
+      </c>
+      <c r="G42">
+        <v>-0.01211641448194363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03113092261128455</v>
+        <v>0.0314312296974051</v>
       </c>
       <c r="C43">
-        <v>0.01738869318935695</v>
+        <v>-0.0167601904880792</v>
       </c>
       <c r="D43">
-        <v>-0.000765019417896968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03957636114026838</v>
+      </c>
+      <c r="E43">
+        <v>0.01387626686057316</v>
+      </c>
+      <c r="F43">
+        <v>-0.1017119333230762</v>
+      </c>
+      <c r="G43">
+        <v>-0.02447779678329097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02318228035729137</v>
+        <v>0.01653745001759727</v>
       </c>
       <c r="C44">
-        <v>0.05617861241808997</v>
+        <v>-0.05316075344987819</v>
       </c>
       <c r="D44">
-        <v>-0.01086970722156432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04397384437818237</v>
+      </c>
+      <c r="E44">
+        <v>0.02681205228616329</v>
+      </c>
+      <c r="F44">
+        <v>-0.111914145235374</v>
+      </c>
+      <c r="G44">
+        <v>0.002693360212280094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0005687107860350525</v>
+        <v>0.009428842989932656</v>
       </c>
       <c r="C46">
-        <v>0.01992817191837467</v>
+        <v>-0.01908991925416767</v>
       </c>
       <c r="D46">
-        <v>0.01305136972404452</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01127671146168879</v>
+      </c>
+      <c r="E46">
+        <v>0.01558681388727283</v>
+      </c>
+      <c r="F46">
+        <v>-0.1074024390542117</v>
+      </c>
+      <c r="G46">
+        <v>0.002679408960221991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07858373571588652</v>
+        <v>0.08862025571428489</v>
       </c>
       <c r="C47">
-        <v>0.07289154093626898</v>
+        <v>-0.07557621367624622</v>
       </c>
       <c r="D47">
-        <v>0.0001057696712725676</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005587182729111258</v>
+      </c>
+      <c r="E47">
+        <v>0.04226324943051178</v>
+      </c>
+      <c r="F47">
+        <v>-0.08912878796648151</v>
+      </c>
+      <c r="G47">
+        <v>-0.04308755228268178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01814703630922427</v>
+        <v>0.01641917721220435</v>
       </c>
       <c r="C48">
-        <v>0.01343157107924406</v>
+        <v>-0.01602256076165564</v>
       </c>
       <c r="D48">
-        <v>0.004370511077829726</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01823584481395745</v>
+      </c>
+      <c r="E48">
+        <v>0.02197259472388304</v>
+      </c>
+      <c r="F48">
+        <v>-0.1056217289650865</v>
+      </c>
+      <c r="G48">
+        <v>-0.006007820110692915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08738459122421287</v>
+        <v>0.07435760103524504</v>
       </c>
       <c r="C50">
-        <v>0.0705051701676888</v>
+        <v>-0.06775702460194949</v>
       </c>
       <c r="D50">
-        <v>0.01528822912999062</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002993081846591105</v>
+      </c>
+      <c r="E50">
+        <v>0.03398604046082059</v>
+      </c>
+      <c r="F50">
+        <v>-0.08384818229606347</v>
+      </c>
+      <c r="G50">
+        <v>-0.07372044532102234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01249272256869754</v>
+        <v>0.01100214713724096</v>
       </c>
       <c r="C51">
-        <v>0.04586264933922845</v>
+        <v>-0.03422119028132222</v>
       </c>
       <c r="D51">
-        <v>-0.003187271279454658</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04615914700809088</v>
+      </c>
+      <c r="E51">
+        <v>-0.003114254811213681</v>
+      </c>
+      <c r="F51">
+        <v>-0.09348083240286797</v>
+      </c>
+      <c r="G51">
+        <v>0.01708975730863295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09597732646431958</v>
+        <v>0.0924380946287464</v>
       </c>
       <c r="C53">
-        <v>0.07512491251224304</v>
+        <v>-0.08633827508246818</v>
       </c>
       <c r="D53">
-        <v>0.0268672053888427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03108327253842606</v>
+      </c>
+      <c r="E53">
+        <v>0.04610623652362885</v>
+      </c>
+      <c r="F53">
+        <v>-0.09384089426939034</v>
+      </c>
+      <c r="G53">
+        <v>-0.0494869266488931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02945692133882767</v>
+        <v>0.03010673331257424</v>
       </c>
       <c r="C54">
-        <v>0.01471415117076129</v>
+        <v>-0.0240211393413828</v>
       </c>
       <c r="D54">
-        <v>-0.002938556404245649</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03290183656434913</v>
+      </c>
+      <c r="E54">
+        <v>0.009246246092941651</v>
+      </c>
+      <c r="F54">
+        <v>-0.1040879688220089</v>
+      </c>
+      <c r="G54">
+        <v>-0.001988705931931334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07445773167092397</v>
+        <v>0.08444400316937881</v>
       </c>
       <c r="C55">
-        <v>0.06808418828031158</v>
+        <v>-0.06786224184946893</v>
       </c>
       <c r="D55">
-        <v>0.02419522686857731</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03865130805875908</v>
+      </c>
+      <c r="E55">
+        <v>0.04573736242630017</v>
+      </c>
+      <c r="F55">
+        <v>-0.06421793958197715</v>
+      </c>
+      <c r="G55">
+        <v>-0.04240393602786014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1522856124153957</v>
+        <v>0.1465444272544366</v>
       </c>
       <c r="C56">
-        <v>0.09192491869198062</v>
+        <v>-0.1002737913301281</v>
       </c>
       <c r="D56">
-        <v>0.01916564934016811</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04003650936175639</v>
+      </c>
+      <c r="E56">
+        <v>0.05126333569565051</v>
+      </c>
+      <c r="F56">
+        <v>-0.05785717901383039</v>
+      </c>
+      <c r="G56">
+        <v>-0.04950526558766559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00642312131828431</v>
+        <v>0.002868443823334881</v>
       </c>
       <c r="C57">
-        <v>0.001121632478889244</v>
+        <v>-0.0004382033216854468</v>
       </c>
       <c r="D57">
-        <v>-0.03067455406177877</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02218285557501391</v>
+      </c>
+      <c r="E57">
+        <v>0.01133978581391857</v>
+      </c>
+      <c r="F57">
+        <v>-0.01160923574535079</v>
+      </c>
+      <c r="G57">
+        <v>1.157301787159517e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06168079403414105</v>
+        <v>0.0371378290780689</v>
       </c>
       <c r="C58">
-        <v>0.04596790442880769</v>
+        <v>-0.02894220819392296</v>
       </c>
       <c r="D58">
-        <v>-0.969483788231819</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6484465697903073</v>
+      </c>
+      <c r="E58">
+        <v>0.6498506577161993</v>
+      </c>
+      <c r="F58">
+        <v>0.3283344962500701</v>
+      </c>
+      <c r="G58">
+        <v>0.007136547237920848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1329066505352462</v>
+        <v>0.1433606902679594</v>
       </c>
       <c r="C59">
-        <v>-0.2054802198677337</v>
+        <v>0.1958040246401818</v>
       </c>
       <c r="D59">
-        <v>-0.01726237178449185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02695510997299237</v>
+      </c>
+      <c r="E59">
+        <v>0.01111290430309903</v>
+      </c>
+      <c r="F59">
+        <v>-0.02785464493675399</v>
+      </c>
+      <c r="G59">
+        <v>0.03078437729013495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3153269982520542</v>
+        <v>0.286146211859535</v>
       </c>
       <c r="C60">
-        <v>0.08022186425299037</v>
+        <v>-0.08814716517436144</v>
       </c>
       <c r="D60">
-        <v>0.004118149163640675</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1632349391036819</v>
+      </c>
+      <c r="E60">
+        <v>-0.2921987238973397</v>
+      </c>
+      <c r="F60">
+        <v>0.1561726776182634</v>
+      </c>
+      <c r="G60">
+        <v>-0.04957690309294805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03775252538424434</v>
+        <v>0.04132863310020296</v>
       </c>
       <c r="C61">
-        <v>0.06064919850622126</v>
+        <v>-0.05967487923465519</v>
       </c>
       <c r="D61">
-        <v>-0.00872996938677636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04322187797697632</v>
+      </c>
+      <c r="E61">
+        <v>-0.002401772908884578</v>
+      </c>
+      <c r="F61">
+        <v>-0.08745711585202672</v>
+      </c>
+      <c r="G61">
+        <v>-0.0102293472335211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01610299695381761</v>
+        <v>0.01680578979169596</v>
       </c>
       <c r="C63">
-        <v>0.03275107861821061</v>
+        <v>-0.03003318042693919</v>
       </c>
       <c r="D63">
-        <v>0.01019181323465634</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01867183781330093</v>
+      </c>
+      <c r="E63">
+        <v>0.01334746436935084</v>
+      </c>
+      <c r="F63">
+        <v>-0.086796450820833</v>
+      </c>
+      <c r="G63">
+        <v>-0.02688075133963793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04993183357800586</v>
+        <v>0.05477969001777506</v>
       </c>
       <c r="C64">
-        <v>0.02691178994389561</v>
+        <v>-0.04718992267888987</v>
       </c>
       <c r="D64">
-        <v>0.01529589772446264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01000065653174449</v>
+      </c>
+      <c r="E64">
+        <v>0.0003480025915419357</v>
+      </c>
+      <c r="F64">
+        <v>-0.09634223937888174</v>
+      </c>
+      <c r="G64">
+        <v>0.001249844279765729</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0910473632418803</v>
+        <v>0.06930939795094411</v>
       </c>
       <c r="C65">
-        <v>0.05283025041651376</v>
+        <v>-0.03887785442927075</v>
       </c>
       <c r="D65">
-        <v>-0.009227041350954363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07533591030900329</v>
+      </c>
+      <c r="E65">
+        <v>-0.004741107179013724</v>
+      </c>
+      <c r="F65">
+        <v>-0.04103807517200118</v>
+      </c>
+      <c r="G65">
+        <v>-0.001529556639563694</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06571728133217399</v>
+        <v>0.05288296066185792</v>
       </c>
       <c r="C66">
-        <v>0.1083703155682671</v>
+        <v>-0.09001410886135668</v>
       </c>
       <c r="D66">
-        <v>-0.0123357153011492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0714931048743372</v>
+      </c>
+      <c r="E66">
+        <v>-0.0125173514039145</v>
+      </c>
+      <c r="F66">
+        <v>-0.1000834611705545</v>
+      </c>
+      <c r="G66">
+        <v>0.0005282286195114655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06087279805928408</v>
+        <v>0.05047560284294864</v>
       </c>
       <c r="C67">
-        <v>0.03220630618696286</v>
+        <v>-0.02868263577124395</v>
       </c>
       <c r="D67">
-        <v>0.01067433841902194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01188714092891401</v>
+      </c>
+      <c r="E67">
+        <v>0.00488555474512699</v>
+      </c>
+      <c r="F67">
+        <v>-0.0664071394898232</v>
+      </c>
+      <c r="G67">
+        <v>-0.01158086072969437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1191260720632943</v>
+        <v>0.1479233415462611</v>
       </c>
       <c r="C68">
-        <v>-0.2934682706965389</v>
+        <v>0.2645684338313944</v>
       </c>
       <c r="D68">
-        <v>-0.01976318969834783</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01520748250840157</v>
+      </c>
+      <c r="E68">
+        <v>0.04327417970335876</v>
+      </c>
+      <c r="F68">
+        <v>-0.02261657419490706</v>
+      </c>
+      <c r="G68">
+        <v>-0.005875264952266386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08828233173681418</v>
+        <v>0.0882201693105214</v>
       </c>
       <c r="C69">
-        <v>0.06853210045677274</v>
+        <v>-0.08160791048894392</v>
       </c>
       <c r="D69">
-        <v>0.02959482183366142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008190893086951645</v>
+      </c>
+      <c r="E69">
+        <v>0.01343751158419552</v>
+      </c>
+      <c r="F69">
+        <v>-0.09791870398710284</v>
+      </c>
+      <c r="G69">
+        <v>-0.01701911147948186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1194441901976353</v>
+        <v>0.1367804858835684</v>
       </c>
       <c r="C71">
-        <v>-0.2428595436676965</v>
+        <v>0.2389945581804368</v>
       </c>
       <c r="D71">
-        <v>-0.02261160975331679</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01765513784410313</v>
+      </c>
+      <c r="E71">
+        <v>0.04459708255606417</v>
+      </c>
+      <c r="F71">
+        <v>-0.0682799731652233</v>
+      </c>
+      <c r="G71">
+        <v>-0.02697909048417959</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08048247092458762</v>
+        <v>0.09018561722070567</v>
       </c>
       <c r="C72">
-        <v>0.05150256768724206</v>
+        <v>-0.05306711944598844</v>
       </c>
       <c r="D72">
-        <v>0.04107594151874461</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006356370743940203</v>
+      </c>
+      <c r="E72">
+        <v>-0.01820380683781377</v>
+      </c>
+      <c r="F72">
+        <v>-0.08302701758549433</v>
+      </c>
+      <c r="G72">
+        <v>-0.02063809667336895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4404105135949677</v>
+        <v>0.3551466539973589</v>
       </c>
       <c r="C73">
-        <v>0.0650541258206411</v>
+        <v>-0.06335978432962963</v>
       </c>
       <c r="D73">
-        <v>-0.01991918498845572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3402259164661229</v>
+      </c>
+      <c r="E73">
+        <v>-0.5185771500985524</v>
+      </c>
+      <c r="F73">
+        <v>0.3408691971146687</v>
+      </c>
+      <c r="G73">
+        <v>-0.1080213065457795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1194890096937584</v>
+        <v>0.113390103004443</v>
       </c>
       <c r="C74">
-        <v>0.1154990440211409</v>
+        <v>-0.100879313381535</v>
       </c>
       <c r="D74">
-        <v>0.02012335307467827</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01618931469542463</v>
+      </c>
+      <c r="E74">
+        <v>0.06281147229686526</v>
+      </c>
+      <c r="F74">
+        <v>-0.07472290627437633</v>
+      </c>
+      <c r="G74">
+        <v>-0.06688800544779924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2622173971064971</v>
+        <v>0.2571966961277077</v>
       </c>
       <c r="C75">
-        <v>0.1231838987449897</v>
+        <v>-0.1368263790840196</v>
       </c>
       <c r="D75">
-        <v>0.0349788046408966</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1030623796294987</v>
+      </c>
+      <c r="E75">
+        <v>0.1155993956797673</v>
+      </c>
+      <c r="F75">
+        <v>-0.02692957951233539</v>
+      </c>
+      <c r="G75">
+        <v>-0.0630599156933398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1184270155940725</v>
+        <v>0.1295037605962619</v>
       </c>
       <c r="C76">
-        <v>0.1054115606494182</v>
+        <v>-0.1042769147667384</v>
       </c>
       <c r="D76">
-        <v>0.03243152345179241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04565119197887839</v>
+      </c>
+      <c r="E76">
+        <v>0.07701998120319874</v>
+      </c>
+      <c r="F76">
+        <v>-0.0766305701185382</v>
+      </c>
+      <c r="G76">
+        <v>-0.05224278594336142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07394017848892492</v>
+        <v>0.06682313379304639</v>
       </c>
       <c r="C77">
-        <v>0.05502596046661501</v>
+        <v>-0.06272173771800289</v>
       </c>
       <c r="D77">
-        <v>-0.03434211841696456</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06251836491500166</v>
+      </c>
+      <c r="E77">
+        <v>0.0364096868644993</v>
+      </c>
+      <c r="F77">
+        <v>-0.1159318588117671</v>
+      </c>
+      <c r="G77">
+        <v>0.1309488797590971</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04453289896524768</v>
+        <v>0.04214474767519854</v>
       </c>
       <c r="C78">
-        <v>0.0437298689999136</v>
+        <v>-0.05270174902890197</v>
       </c>
       <c r="D78">
-        <v>-0.005027503476590488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06105284920602472</v>
+      </c>
+      <c r="E78">
+        <v>-0.01924606752448427</v>
+      </c>
+      <c r="F78">
+        <v>-0.1016166898338523</v>
+      </c>
+      <c r="G78">
+        <v>-0.002888273353852718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01174603982861242</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03361344270683639</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03793627213960434</v>
+      </c>
+      <c r="E79">
+        <v>0.04109161312909043</v>
+      </c>
+      <c r="F79">
+        <v>-0.02421440225275894</v>
+      </c>
+      <c r="G79">
+        <v>-0.03735376360475125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05069031865216958</v>
+        <v>0.03990829862555545</v>
       </c>
       <c r="C80">
-        <v>0.04755872092461795</v>
+        <v>-0.04323547684086413</v>
       </c>
       <c r="D80">
-        <v>-0.02673990973846089</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04529840054969461</v>
+      </c>
+      <c r="E80">
+        <v>0.00124128434947337</v>
+      </c>
+      <c r="F80">
+        <v>-0.04182940207620211</v>
+      </c>
+      <c r="G80">
+        <v>0.04405828726742227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1376024301178384</v>
+        <v>0.141984555555832</v>
       </c>
       <c r="C81">
-        <v>0.08102840322299294</v>
+        <v>-0.09441244390923238</v>
       </c>
       <c r="D81">
-        <v>0.0204165113181344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07374172481068221</v>
+      </c>
+      <c r="E81">
+        <v>0.09545084772155359</v>
+      </c>
+      <c r="F81">
+        <v>-0.036432921734931</v>
+      </c>
+      <c r="G81">
+        <v>-0.05344768284708838</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.07031349800383756</v>
+        <v>0.1924505661773805</v>
       </c>
       <c r="C82">
-        <v>0.04231594716808004</v>
+        <v>-0.1343266161460814</v>
       </c>
       <c r="D82">
-        <v>0.02233546681297005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2128713214373149</v>
+      </c>
+      <c r="E82">
+        <v>0.05417864714598634</v>
+      </c>
+      <c r="F82">
+        <v>-0.05669996160788131</v>
+      </c>
+      <c r="G82">
+        <v>-0.01805356123063397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02764631214018768</v>
+        <v>0.02748886868212356</v>
       </c>
       <c r="C83">
-        <v>0.02031152609781253</v>
+        <v>-0.03612759074397305</v>
       </c>
       <c r="D83">
-        <v>-0.01675452799888491</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03405860702209337</v>
+      </c>
+      <c r="E83">
+        <v>-0.006240541508163024</v>
+      </c>
+      <c r="F83">
+        <v>-0.05106380470006761</v>
+      </c>
+      <c r="G83">
+        <v>0.02594602989772294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2437945791817878</v>
+        <v>0.2107644328283576</v>
       </c>
       <c r="C85">
-        <v>0.1186866543960508</v>
+        <v>-0.1202722087218771</v>
       </c>
       <c r="D85">
-        <v>0.109563431837424</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1041350972985875</v>
+      </c>
+      <c r="E85">
+        <v>0.03564488480525863</v>
+      </c>
+      <c r="F85">
+        <v>0.01712209685596952</v>
+      </c>
+      <c r="G85">
+        <v>-0.1104966689188984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008753699038486775</v>
+        <v>0.01303390069839426</v>
       </c>
       <c r="C86">
-        <v>0.02592272068140041</v>
+        <v>-0.03170733416265699</v>
       </c>
       <c r="D86">
-        <v>-0.02786269138723506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0731273951701521</v>
+      </c>
+      <c r="E86">
+        <v>0.006165557970607235</v>
+      </c>
+      <c r="F86">
+        <v>-0.1536896135390818</v>
+      </c>
+      <c r="G86">
+        <v>0.012863938246666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01318887619447495</v>
+        <v>0.02054197018224903</v>
       </c>
       <c r="C87">
-        <v>0.02529057360657739</v>
+        <v>-0.01828157089816297</v>
       </c>
       <c r="D87">
-        <v>-0.07856781249246708</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09928233937499131</v>
+      </c>
+      <c r="E87">
+        <v>0.04621420026647045</v>
+      </c>
+      <c r="F87">
+        <v>-0.111584517210405</v>
+      </c>
+      <c r="G87">
+        <v>0.03602791328627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1019080203086237</v>
+        <v>0.09014189132851118</v>
       </c>
       <c r="C88">
-        <v>0.07580196138381338</v>
+        <v>-0.0629080284473391</v>
       </c>
       <c r="D88">
-        <v>0.01490709672958956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01322164877331703</v>
+      </c>
+      <c r="E88">
+        <v>0.0130992350488414</v>
+      </c>
+      <c r="F88">
+        <v>-0.07659392099898928</v>
+      </c>
+      <c r="G88">
+        <v>0.03178551426831552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1903116077680219</v>
+        <v>0.2106502188890794</v>
       </c>
       <c r="C89">
-        <v>-0.3757292218412004</v>
+        <v>0.3800676640634811</v>
       </c>
       <c r="D89">
-        <v>0.02822750818443042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02346523514920813</v>
+      </c>
+      <c r="E89">
+        <v>0.01237112030134455</v>
+      </c>
+      <c r="F89">
+        <v>-0.09710512077147959</v>
+      </c>
+      <c r="G89">
+        <v>0.07117732039130675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1758479644110689</v>
+        <v>0.1948666129551192</v>
       </c>
       <c r="C90">
-        <v>-0.3512736082987343</v>
+        <v>0.3236794068130275</v>
       </c>
       <c r="D90">
-        <v>-0.008156528367154128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0144472606231669</v>
+      </c>
+      <c r="E90">
+        <v>0.05339663796280468</v>
+      </c>
+      <c r="F90">
+        <v>-0.05883287959162432</v>
+      </c>
+      <c r="G90">
+        <v>0.01567662358245371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2025916221317395</v>
+        <v>0.1947058762219017</v>
       </c>
       <c r="C91">
-        <v>0.1145043718211553</v>
+        <v>-0.1360794830986513</v>
       </c>
       <c r="D91">
-        <v>0.03846429273297456</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08698246765225315</v>
+      </c>
+      <c r="E91">
+        <v>0.0929565120682934</v>
+      </c>
+      <c r="F91">
+        <v>-0.05245090572245849</v>
+      </c>
+      <c r="G91">
+        <v>-0.05184954783019339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1692167506380478</v>
+        <v>0.1774806343413892</v>
       </c>
       <c r="C92">
-        <v>-0.2788597887785891</v>
+        <v>0.2825159081515451</v>
       </c>
       <c r="D92">
-        <v>-0.003405908084315282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.001902423097877255</v>
+      </c>
+      <c r="E92">
+        <v>0.07562541972168363</v>
+      </c>
+      <c r="F92">
+        <v>-0.08090350359980467</v>
+      </c>
+      <c r="G92">
+        <v>0.01729929962358507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.194620530881289</v>
+        <v>0.2174313888654317</v>
       </c>
       <c r="C93">
-        <v>-0.3385980084016916</v>
+        <v>0.3253627095069289</v>
       </c>
       <c r="D93">
-        <v>-0.00718151689093424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00223011879453221</v>
+      </c>
+      <c r="E93">
+        <v>0.04333406158285801</v>
+      </c>
+      <c r="F93">
+        <v>-0.06283592949397288</v>
+      </c>
+      <c r="G93">
+        <v>-0.02808335629630817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2819430177346871</v>
+        <v>0.3457873968794067</v>
       </c>
       <c r="C94">
-        <v>0.1456083506611489</v>
+        <v>-0.1881674408406112</v>
       </c>
       <c r="D94">
-        <v>0.09193900705856213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4242150970667968</v>
+      </c>
+      <c r="E94">
+        <v>0.2890336911903141</v>
+      </c>
+      <c r="F94">
+        <v>0.4184870477580495</v>
+      </c>
+      <c r="G94">
+        <v>0.2462211013539766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09084068173951824</v>
+        <v>0.08533718263841317</v>
       </c>
       <c r="C95">
-        <v>0.07169947991071988</v>
+        <v>-0.07326623243812749</v>
       </c>
       <c r="D95">
-        <v>-0.0573481707249517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1311399347151783</v>
+      </c>
+      <c r="E95">
+        <v>-0.1343099690673326</v>
+      </c>
+      <c r="F95">
+        <v>-0.1011577452211362</v>
+      </c>
+      <c r="G95">
+        <v>0.9049793948645323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2091580927074874</v>
+        <v>0.1927060375967135</v>
       </c>
       <c r="C98">
-        <v>0.02648845668064618</v>
+        <v>-0.03423405734765129</v>
       </c>
       <c r="D98">
-        <v>-0.03147395401152087</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.149105975827778</v>
+      </c>
+      <c r="E98">
+        <v>-0.1755150519568587</v>
+      </c>
+      <c r="F98">
+        <v>0.05553967258592022</v>
+      </c>
+      <c r="G98">
+        <v>-0.1021549983929061</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01165483110983068</v>
+        <v>0.007714202168182307</v>
       </c>
       <c r="C101">
-        <v>0.02618371024291966</v>
+        <v>-0.02361441695091139</v>
       </c>
       <c r="D101">
-        <v>0.01231032734191031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01787081907009919</v>
+      </c>
+      <c r="E101">
+        <v>0.01002381819055775</v>
+      </c>
+      <c r="F101">
+        <v>-0.09340002099439125</v>
+      </c>
+      <c r="G101">
+        <v>-0.002143733799796281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1229826621497931</v>
+        <v>0.1254195722846323</v>
       </c>
       <c r="C102">
-        <v>0.07443582371286681</v>
+        <v>-0.09600327323702137</v>
       </c>
       <c r="D102">
-        <v>0.02172385096233749</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04398912671636054</v>
+      </c>
+      <c r="E102">
+        <v>0.009721513439466879</v>
+      </c>
+      <c r="F102">
+        <v>-0.02626830986659345</v>
+      </c>
+      <c r="G102">
+        <v>-0.01332100807875617</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
